--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="150">
   <si>
     <t>No</t>
   </si>
@@ -402,13 +402,6 @@
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html 
 </t>
-  </si>
-  <si>
-    <t>Verify that screenings created in test cases 1 - 4 were shown 
-Hand Foot Mouth Disease, Cancers, Cancer, Chicken Pox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'Add Screenings' from the Screenings drop down list on the header  </t>
   </si>
   <si>
     <t xml:space="preserve">Edit Screening (Type: All) </t>
@@ -521,15 +514,6 @@
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html
 Demographic: Infant 
-Age Group: 0 - 10 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 1 year old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
 Age Group: 20 - 30 in drop down list  
 </t>
   </si>
@@ -591,13 +575,6 @@
   </si>
   <si>
     <t>Add Screenings (Type: Infant)</t>
-  </si>
-  <si>
-    <t>Age : 0
-Common illness:  Hepatitis B
-Recommended screening: BCG Vaccine
-Demographic affected: Infant
-Regularity : 0</t>
   </si>
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html
@@ -660,7 +637,69 @@
     <t>Type are sorted in alphatical order (A - Z)</t>
   </si>
   <si>
-    <t>No success message, page only refresh and did not redirect to view screening page</t>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening: Hepatitis B-1st Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Age : 0
+Common illness:  Hepatitis B
+Recommended screening:Hepatitis B-2nd Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the link</t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the view screenings tab</t>
+  </si>
+  <si>
+    <t>Redirect back to screening page, screening not shown</t>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to view screenings page</t>
+  </si>
+  <si>
+    <t>Demographic affected was female, female, male</t>
+  </si>
+  <si>
+    <t>No message to indicate screening updated</t>
+  </si>
+  <si>
+    <t>Illness for infant added</t>
+  </si>
+  <si>
+    <t>"Successfully added" and redirect to view screenings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 0 - 2
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
+  </si>
+  <si>
+    <t>All screenings shown</t>
+  </si>
+  <si>
+    <t>Screening removed</t>
+  </si>
+  <si>
+    <t>Unable to click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to filter for result </t>
   </si>
 </sst>
 </file>
@@ -862,13 +901,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>208429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:rowOff>3707836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -891,7 +930,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
+          <a:off x="4535768" y="11630958"/>
           <a:ext cx="3432345" cy="3499407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -906,13 +945,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:rowOff>230841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:rowOff>2308012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -935,7 +974,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
+          <a:off x="4521576" y="15463370"/>
           <a:ext cx="2470149" cy="2077171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3277,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3329,9 +3368,11 @@
         <v>79</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3349,8 +3390,12 @@
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -3368,8 +3413,12 @@
       <c r="D4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3387,8 +3436,12 @@
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -3404,10 +3457,12 @@
         <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -3420,13 +3475,15 @@
         <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3436,16 +3493,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3458,13 +3519,17 @@
         <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -3474,16 +3539,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -3493,16 +3562,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -3518,10 +3591,14 @@
         <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -3531,16 +3608,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -3550,16 +3631,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -3569,16 +3654,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -3588,172 +3677,252 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="E21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="E22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="E25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -151,9 +151,6 @@
     <t xml:space="preserve">Create Account using User Account </t>
   </si>
   <si>
-    <t xml:space="preserve">Error Message Shown </t>
-  </si>
-  <si>
     <t>Account Management tab should not appear in header</t>
   </si>
   <si>
@@ -275,14 +272,6 @@
 Email: ulinkassist_executive
 Password:  password!23
 Click the Logout button</t>
-  </si>
-  <si>
-    <t>Login with Test Case 6
-Email: admin
-Password:  admin
-Select User Account (Created in Test Case 5) 
-Email: ulinkassist_executive , change esisting password to : password123   
-Click Update button</t>
   </si>
   <si>
     <t>Login with Test Case 7
@@ -700,6 +689,61 @@
   </si>
   <si>
     <t xml:space="preserve">Unable to filter for result </t>
+  </si>
+  <si>
+    <t>Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Error message show to input empty fields</t>
+  </si>
+  <si>
+    <t>Page redirect to viewscreening page and screenings updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
+Remove all values and click 'Update'</t>
+  </si>
+  <si>
+    <t>Login with Test Case 6
+Email: admin
+Password:  admin
+Select User Account (Created in Test Case 7) 
+Email: ulinkassist_executive , change esisting password to : password123   
+Click Update button</t>
+  </si>
+  <si>
+    <t>Error Message Shown / Redirect to home page</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as admin, in accountmangement.html / account management tab, select anotheruser account, click 'reset' </t>
+  </si>
+  <si>
+    <t>Error message should appear to indicate fill cannot be empty</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account, do not input any fills and click 'Create New Account'</t>
+  </si>
+  <si>
+    <t>Error message should appear to indicate fields cannot be empty</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account
+email: email
+click 'Create New Account'</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account
+password: password
+click 'Create New Account'</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection sqref="A1:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1537,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1560,16 +1604,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1578,16 +1622,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1597,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1619,16 +1663,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1641,13 +1685,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1663,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1685,13 +1729,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1707,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1729,13 +1773,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1751,13 +1795,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1773,13 +1817,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1795,13 +1839,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -1817,13 +1861,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1839,13 +1883,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1861,13 +1905,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1883,13 +1927,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -1905,13 +1949,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1922,21 +1966,21 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1949,16 +1993,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1971,16 +2015,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1993,16 +2037,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2015,13 +2059,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -2037,16 +2081,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2059,16 +2103,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2081,16 +2125,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2103,16 +2147,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2125,16 +2169,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2142,48 +2186,88 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+    <row r="29" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+    <row r="30" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+    <row r="31" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+    <row r="32" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -3316,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3359,16 +3443,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -3382,16 +3466,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -3405,16 +3489,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3428,16 +3512,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3451,13 +3535,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -3472,13 +3556,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -3493,19 +3577,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3516,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3539,16 +3623,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -3562,19 +3646,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3585,19 +3669,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3608,19 +3692,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3631,19 +3715,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3654,19 +3738,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3677,13 +3761,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -3692,13 +3776,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3706,16 +3790,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -3726,16 +3810,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -3746,16 +3830,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -3766,16 +3850,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -3786,16 +3870,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -3806,16 +3890,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -3826,19 +3910,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -3846,19 +3930,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -3866,19 +3950,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -3886,19 +3970,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -3906,23 +3990,80 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="Login &amp; Account Management" sheetId="21" r:id="rId2"/>
+    <sheet name="Login &amp; Account Management" sheetId="21" state="hidden" r:id="rId2"/>
     <sheet name="Screenings" sheetId="23" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
@@ -379,46 +379,296 @@
     <t xml:space="preserve">Add Screening (Type : Infant) </t>
   </si>
   <si>
-    <t>Age : 1
+    <t xml:space="preserve">View Screenings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html 
+</t>
+  </si>
+  <si>
+    <t>Success Message shown, screening details updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
+Regularity : 0
+</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
+  </si>
+  <si>
+    <t>Add Screening : Wrong Age Group</t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Fever
+Recommended screening:  - 
+Demographic affected: Infant, Female, Male
+Regularity : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
+  </si>
+  <si>
+    <t>View Screenings with Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 20 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Male
+Age Group: 20 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
+  </si>
+  <si>
+    <t>View Clients Base on Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Male
+Age Group: 20 - 30 in drop down list  
+Illness: Cancers, Click 'View Client List' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 Names should shown. 
+</t>
+  </si>
+  <si>
+    <t>6 Names should shown</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Men and Female)</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Obesity
+Recommended screening: BMI &amp; Waist Circumference 
+Demographic affected: Male and Female
+Regularity : 1</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Hypertension (High Blood Pressure) 
+Recommended screening: Blood Pressure Measurement 
+Demographic affected: Male and Female
+Regularity : 2</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Female)</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Breast Cancer
+Recommended screening: Clinical Breast Exam 
+Demographic affected: Female
+Regularity : 3</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Infant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant
+Illness: Chicken Pox, Click 'View Client List' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 4 
+Age : 1
+Common illness:  Chicken Pox  
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 1 
+</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By screening)  </t>
+  </si>
+  <si>
+    <t>Sort Screenings (By type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Condition names are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Age are sorted in ascending order starting from 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age are sorted in descending order </t>
+  </si>
+  <si>
+    <t>Screenings are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Type are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the link</t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the view screenings tab</t>
+  </si>
+  <si>
+    <t>Redirect back to screening page, screening not shown</t>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to view screenings page</t>
+  </si>
+  <si>
+    <t>Demographic affected was female, female, male</t>
+  </si>
+  <si>
+    <t>No message to indicate screening updated</t>
+  </si>
+  <si>
+    <t>Illness for infant added</t>
+  </si>
+  <si>
+    <t>"Successfully added" and redirect to view screenings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 0 - 2
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
+  </si>
+  <si>
+    <t>All screenings shown</t>
+  </si>
+  <si>
+    <t>Screening removed</t>
+  </si>
+  <si>
+    <t>Unable to click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to filter for result </t>
+  </si>
+  <si>
+    <t>Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Error message show to input empty fields</t>
+  </si>
+  <si>
+    <t>Page redirect to viewscreening page and screenings updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
+Remove all values and click 'Update'</t>
+  </si>
+  <si>
+    <t>Login with Test Case 6
+Email: admin
+Password:  admin
+Select User Account (Created in Test Case 7) 
+Email: ulinkassist_executive , change esisting password to : password123   
+Click Update button</t>
+  </si>
+  <si>
+    <t>Error Message Shown / Redirect to home page</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as admin, in accountmangement.html / account management tab, select anotheruser account, click 'reset' </t>
+  </si>
+  <si>
+    <t>Error message should appear to indicate fill cannot be empty</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account, do not input any fills and click 'Create New Account'</t>
+  </si>
+  <si>
+    <t>Error message should appear to indicate fields cannot be empty</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account
+email: email
+click 'Create New Account'</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account
+password: password
+click 'Create New Account'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age : 1 month 
 Common illness:  Chicken Pox
 Recommended screening:  - 
 Demographic affected: Infant
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Screenings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Screening (Type: All) </t>
+Regularity : 1 </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Age : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Age : 5
 Common illness:  Hand Foot Mouth Disease  
 Recommended screening:  Body Checkup
 Demographic affected: </t>
@@ -432,7 +682,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Infant, Female, Male</t>
+      <t>Female</t>
     </r>
     <r>
       <rPr>
@@ -458,292 +708,21 @@
     </r>
   </si>
   <si>
-    <t>Success Message shown, screening details updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-Regularity : 0
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
-    <t>Add Screening : Wrong Age Group</t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Fever
-Recommended screening:  - 
-Demographic affected: Infant, Female, Male
+    <t xml:space="preserve">Edit Screening (Type: Female) </t>
+  </si>
+  <si>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening:Hepatitis B-2nd Dose
+Demographic affected: Infant
 Regularity : 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
-  </si>
-  <si>
-    <t>View Screenings with Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
-  </si>
-  <si>
-    <t>View Clients Base on Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t>6 Names should shown</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Men and Female)</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Obesity
-Recommended screening: BMI &amp; Waist Circumference 
-Demographic affected: Male and Female
-Regularity : 1</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Hypertension (High Blood Pressure) 
-Recommended screening: Blood Pressure Measurement 
-Demographic affected: Male and Female
-Regularity : 2</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Female)</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Breast Cancer
-Recommended screening: Clinical Breast Exam 
-Demographic affected: Female
-Regularity : 3</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Infant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant
-Illness: Chicken Pox, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 4 
-Age : 1
-Common illness:  Chicken Pox  
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By screening)  </t>
-  </si>
-  <si>
-    <t>Sort Screenings (By type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Condition names are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Age are sorted in ascending order starting from 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age are sorted in descending order </t>
-  </si>
-  <si>
-    <t>Screenings are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Type are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Age : 1 month
+    <t>Age : 0 month
 Common illness:  Hepatitis B
 Recommended screening: Hepatitis B-1st Dose
 Demographic affected: Infant
 Regularity : 0</t>
-  </si>
-  <si>
-    <t>Age : 0
-Common illness:  Hepatitis B
-Recommended screening:Hepatitis B-2nd Dose
-Demographic affected: Infant
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the link</t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the view screenings tab</t>
-  </si>
-  <si>
-    <t>Redirect back to screening page, screening not shown</t>
-  </si>
-  <si>
-    <t>Success Message shown, redirect to view screenings page</t>
-  </si>
-  <si>
-    <t>Demographic affected was female, female, male</t>
-  </si>
-  <si>
-    <t>No message to indicate screening updated</t>
-  </si>
-  <si>
-    <t>Illness for infant added</t>
-  </si>
-  <si>
-    <t>"Successfully added" and redirect to view screenings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 2
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
-  </si>
-  <si>
-    <t>All screenings shown</t>
-  </si>
-  <si>
-    <t>Screening removed</t>
-  </si>
-  <si>
-    <t>Unable to click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to filter for result </t>
-  </si>
-  <si>
-    <t>Value specific validation</t>
-  </si>
-  <si>
-    <t>Access add screenings page, click 'Add'</t>
-  </si>
-  <si>
-    <t>Error message show to input empty fields</t>
-  </si>
-  <si>
-    <t>Page redirect to viewscreening page and screenings updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
-  </si>
-  <si>
-    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
-Remove all values and click 'Update'</t>
-  </si>
-  <si>
-    <t>Login with Test Case 6
-Email: admin
-Password:  admin
-Select User Account (Created in Test Case 7) 
-Email: ulinkassist_executive , change esisting password to : password123   
-Click Update button</t>
-  </si>
-  <si>
-    <t>Error Message Shown / Redirect to home page</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login as admin, in accountmangement.html / account management tab, select anotheruser account, click 'reset' </t>
-  </si>
-  <si>
-    <t>Error message should appear to indicate fill cannot be empty</t>
-  </si>
-  <si>
-    <t>Login as admin, in createaccount.html / when creating account, do not input any fills and click 'Create New Account'</t>
-  </si>
-  <si>
-    <t>Error message should appear to indicate fields cannot be empty</t>
-  </si>
-  <si>
-    <t>Login as admin, in createaccount.html / when creating account
-email: email
-click 'Create New Account'</t>
-  </si>
-  <si>
-    <t>Login as admin, in createaccount.html / when creating account
-password: password
-click 'Create New Account'</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection sqref="A1:E33"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1823,7 +1802,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1980,7 +1959,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2191,16 +2170,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2213,16 +2192,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2235,16 +2214,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2257,16 +2236,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3402,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3452,7 +3431,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -3475,7 +3454,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -3498,7 +3477,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3515,13 +3494,13 @@
         <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3535,13 +3514,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -3556,13 +3535,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -3577,19 +3556,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3600,19 +3579,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3623,16 +3602,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -3646,19 +3625,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3669,19 +3648,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3692,19 +3671,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3715,19 +3694,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3738,19 +3717,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3761,13 +3740,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -3776,13 +3755,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3790,16 +3769,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -3810,16 +3789,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -3830,16 +3809,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -3850,16 +3829,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -3870,16 +3849,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -3890,16 +3869,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -3910,19 +3889,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -3930,19 +3909,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -3950,19 +3929,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -3970,19 +3949,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -3990,19 +3969,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4010,16 +3989,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -4030,19 +4009,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4050,16 +4029,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -4067,6 +4046,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
   <si>
     <t>No</t>
   </si>
@@ -413,13 +413,6 @@
     <t>Add Screening : Wrong Age Group</t>
   </si>
   <si>
-    <t>Age : 9
-Common illness:  Fever
-Recommended screening:  - 
-Demographic affected: Infant, Female, Male
-Regularity : 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
   </si>
   <si>
@@ -554,9 +547,6 @@
     <t>Type are sorted in alphatical order (A - Z)</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
   </si>
   <si>
@@ -566,22 +556,7 @@
     <t>Verify that logged in user can access the view screenings tab</t>
   </si>
   <si>
-    <t>Redirect back to screening page, screening not shown</t>
-  </si>
-  <si>
     <t>Success Message shown, redirect to view screenings page</t>
-  </si>
-  <si>
-    <t>Demographic affected was female, female, male</t>
-  </si>
-  <si>
-    <t>No message to indicate screening updated</t>
-  </si>
-  <si>
-    <t>Illness for infant added</t>
-  </si>
-  <si>
-    <t>"Successfully added" and redirect to view screenings</t>
   </si>
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html
@@ -667,8 +642,68 @@
 Regularity : 1 </t>
   </si>
   <si>
+    <t xml:space="preserve">Edit Screening (Type: Female) </t>
+  </si>
+  <si>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening:Hepatitis B-2nd Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Age : 0 month
+Common illness:  Hepatitis B
+Recommended screening: Hepatitis B-1st Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Able to access the link</t>
+  </si>
+  <si>
+    <t>Able to access the tab</t>
+  </si>
+  <si>
+    <t>ecf</t>
+  </si>
+  <si>
+    <t>Age : 25
+Common illness:  Fever
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message shown (less than 24 months) </t>
+  </si>
+  <si>
+    <t>Illness for infant not added</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Age : 5
+      <t xml:space="preserve">Age : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Common illness:  Hand Foot Mouth Disease  
 Recommended screening:  Body Checkup
 Demographic affected: </t>
@@ -704,34 +739,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Regularity : 0</t>
+      <t>Regularity : 1</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Screening (Type: Female) </t>
-  </si>
-  <si>
-    <t>Age : 1 month
-Common illness:  Hepatitis B
-Recommended screening:Hepatitis B-2nd Dose
-Demographic affected: Infant
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Age : 0 month
-Common illness:  Hepatitis B
-Recommended screening: Hepatitis B-1st Dose
-Demographic affected: Infant
-Regularity : 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -761,12 +786,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -781,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -789,14 +820,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,6 +840,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1802,7 +1842,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1959,7 +1999,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2170,16 +2210,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2192,16 +2232,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2214,16 +2254,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2236,16 +2276,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3381,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3430,8 +3470,8 @@
       <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>132</v>
+      <c r="E2" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -3454,7 +3494,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -3477,7 +3517,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3494,15 +3534,15 @@
         <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
@@ -3520,9 +3560,11 @@
         <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3538,12 +3580,14 @@
         <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3556,19 +3600,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>134</v>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3588,10 +3632,10 @@
         <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3611,7 +3655,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -3628,16 +3672,16 @@
         <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3654,115 +3698,110 @@
         <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -3772,13 +3811,13 @@
         <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -3789,16 +3828,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -3809,16 +3848,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -3829,16 +3868,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -3849,16 +3888,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -3869,16 +3908,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -3888,117 +3927,107 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>113</v>
+      <c r="B25" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>116</v>
+      <c r="B26" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>117</v>
+      <c r="B27" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>118</v>
+      <c r="B28" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -4009,40 +4038,38 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>143</v>
+      <c r="B31" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
@@ -3421,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu Yan\Desktop\Ulink\Test Cases\Iteration 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\Test Cases\Iteration 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="Login &amp; Account Management" sheetId="21" state="hidden" r:id="rId2"/>
     <sheet name="Screenings" sheetId="23" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
   <si>
     <t>No</t>
   </si>
@@ -419,44 +419,6 @@
     <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
   </si>
   <si>
-    <t>View Screenings with Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
-  </si>
-  <si>
-    <t>View Clients Base on Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t>6 Names should shown</t>
-  </si>
-  <si>
     <t>Add Screenings (Type: Men and Female)</t>
   </si>
   <si>
@@ -485,12 +447,6 @@
   </si>
   <si>
     <t>Add Screenings (Type: Infant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant
-Illness: Chicken Pox, Click 'View Client List' 
-</t>
   </si>
   <si>
     <t xml:space="preserve">Delete Screening updated from Test Case 4 
@@ -559,25 +515,10 @@
     <t>Success Message shown, redirect to view screenings page</t>
   </si>
   <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 2
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
-  </si>
-  <si>
-    <t>All screenings shown</t>
-  </si>
-  <si>
     <t>Screening removed</t>
   </si>
   <si>
     <t>Unable to click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to filter for result </t>
   </si>
   <si>
     <t>Value specific validation</t>
@@ -875,14 +816,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1000495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -919,14 +860,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2077171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -963,14 +904,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>208429</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3707836</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1000495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1007,14 +948,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>230841</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2308012</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2077171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1319,16 +1260,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1368,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1388,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1396,7 +1337,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1404,7 +1345,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1412,7 +1353,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1420,7 +1361,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1428,7 +1369,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1436,7 +1377,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1444,7 +1385,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1452,7 +1393,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1460,7 +1401,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1468,7 +1409,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1476,7 +1417,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1484,7 +1425,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1492,7 +1433,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1500,7 +1441,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1508,7 +1449,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1516,7 +1457,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1524,7 +1465,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1532,7 +1473,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1540,7 +1481,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1548,7 +1489,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1556,7 +1497,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1564,7 +1505,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1585,17 +1526,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1636,7 +1577,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1655,7 +1596,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1677,7 +1618,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1699,7 +1640,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1721,7 +1662,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1743,7 +1684,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1765,7 +1706,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1787,7 +1728,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1809,7 +1750,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1831,7 +1772,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1842,7 +1783,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1853,7 +1794,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1875,7 +1816,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1897,7 +1838,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1919,7 +1860,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1941,7 +1882,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1963,7 +1904,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1985,7 +1926,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1999,7 +1940,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2007,7 +1948,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2029,7 +1970,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2051,7 +1992,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2073,7 +2014,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2095,7 +2036,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2117,7 +2058,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2139,7 +2080,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2161,7 +2102,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2183,7 +2124,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2205,21 +2146,21 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2227,21 +2168,21 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2249,21 +2190,21 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2271,21 +2212,21 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2293,7 +2234,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -2305,7 +2246,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2"/>
@@ -2317,7 +2258,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
@@ -2329,7 +2270,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2"/>
@@ -2341,7 +2282,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -2353,7 +2294,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -2365,7 +2306,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
@@ -2377,7 +2318,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -2389,7 +2330,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -2401,7 +2342,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
@@ -2413,7 +2354,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -2425,7 +2366,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="2"/>
@@ -2437,7 +2378,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="2"/>
@@ -2449,7 +2390,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="2"/>
@@ -2461,7 +2402,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="2"/>
@@ -2473,7 +2414,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="2"/>
@@ -2485,7 +2426,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="2"/>
@@ -2497,7 +2438,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
@@ -2509,7 +2450,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="2"/>
@@ -2521,7 +2462,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="2"/>
@@ -2533,7 +2474,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
@@ -2545,7 +2486,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="5"/>
@@ -2556,7 +2497,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
@@ -2567,7 +2508,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="5"/>
@@ -2578,7 +2519,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -2589,7 +2530,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -2600,7 +2541,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -2611,7 +2552,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -2622,7 +2563,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -2633,7 +2574,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="5"/>
@@ -2644,7 +2585,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="5"/>
@@ -2655,7 +2596,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="5"/>
@@ -2666,7 +2607,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5"/>
@@ -2677,7 +2618,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5"/>
@@ -2688,7 +2629,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
@@ -2699,7 +2640,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
@@ -2710,7 +2651,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
@@ -2721,7 +2662,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5"/>
@@ -2732,7 +2673,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5"/>
@@ -2743,7 +2684,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="5"/>
@@ -2754,7 +2695,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
@@ -2765,7 +2706,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="5"/>
@@ -2776,7 +2717,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="5"/>
@@ -2787,7 +2728,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="5"/>
@@ -2798,7 +2739,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="5"/>
@@ -2809,7 +2750,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
@@ -2820,7 +2761,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
@@ -2831,7 +2772,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
@@ -2842,7 +2783,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="5"/>
@@ -2853,7 +2794,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5"/>
@@ -2864,7 +2805,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5"/>
@@ -2875,7 +2816,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="5"/>
@@ -2886,7 +2827,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="5"/>
@@ -2897,7 +2838,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="5"/>
@@ -2908,7 +2849,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="5"/>
@@ -2919,7 +2860,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="5"/>
@@ -2930,7 +2871,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="5"/>
@@ -2941,7 +2882,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5"/>
@@ -2952,7 +2893,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5"/>
@@ -2963,7 +2904,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5"/>
@@ -2974,7 +2915,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5"/>
@@ -2985,7 +2926,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="5"/>
@@ -2996,7 +2937,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5"/>
@@ -3007,7 +2948,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5"/>
@@ -3018,7 +2959,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5"/>
@@ -3029,7 +2970,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="5"/>
@@ -3040,7 +2981,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5"/>
@@ -3051,7 +2992,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
@@ -3062,7 +3003,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5"/>
@@ -3073,7 +3014,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="5"/>
@@ -3084,7 +3025,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5"/>
@@ -3095,7 +3036,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5"/>
@@ -3106,7 +3047,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
@@ -3117,7 +3058,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
@@ -3128,7 +3069,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
@@ -3139,7 +3080,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5"/>
@@ -3150,7 +3091,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5"/>
@@ -3161,7 +3102,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="5"/>
@@ -3172,7 +3113,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5"/>
@@ -3183,7 +3124,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5"/>
@@ -3194,7 +3135,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5"/>
@@ -3205,7 +3146,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5"/>
@@ -3216,7 +3157,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5"/>
@@ -3227,7 +3168,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
@@ -3238,7 +3179,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
@@ -3249,7 +3190,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5"/>
@@ -3260,7 +3201,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5"/>
@@ -3271,7 +3212,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5"/>
@@ -3282,7 +3223,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5"/>
@@ -3293,7 +3234,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5"/>
@@ -3304,7 +3245,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5"/>
@@ -3315,7 +3256,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5"/>
@@ -3326,7 +3267,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5"/>
@@ -3337,7 +3278,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5"/>
@@ -3348,7 +3289,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5"/>
@@ -3359,7 +3300,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5"/>
@@ -3370,7 +3311,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5"/>
@@ -3381,7 +3322,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5"/>
@@ -3392,7 +3333,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5"/>
@@ -3403,7 +3344,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3419,22 +3360,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3457,7 +3398,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3471,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -3480,7 +3421,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3494,7 +3435,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -3503,7 +3444,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3517,7 +3458,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3526,7 +3467,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3534,13 +3475,13 @@
         <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>6</v>
@@ -3549,7 +3490,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3560,10 +3501,10 @@
         <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3572,7 +3513,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3580,13 +3521,13 @@
         <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3595,15 +3536,15 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>85</v>
@@ -3618,7 +3559,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3632,7 +3573,7 @@
         <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -3641,7 +3582,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3655,7 +3596,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -3664,7 +3605,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3672,13 +3613,13 @@
         <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -3687,7 +3628,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3701,7 +3642,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -3710,29 +3651,28 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+    <row r="13" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3742,334 +3682,242 @@
         <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+        <v>119</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>106</v>
+      <c r="B21" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>108</v>
+      <c r="B22" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>108</v>
+      <c r="B23" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>112</v>
+      <c r="B24" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>114</v>
+      <c r="C25" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v3 Result.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="Login &amp; Account Management" sheetId="21" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId2"/>
     <sheet name="Screenings" sheetId="23" r:id="rId3"/>
+    <sheet name="Login &amp; Account Management" sheetId="21" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="155">
   <si>
     <t>No</t>
   </si>
@@ -682,6 +683,27 @@
       </rPr>
       <t>Regularity : 1</t>
     </r>
+  </si>
+  <si>
+    <t>Iteration 6 functions</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>Previous Iteration</t>
+  </si>
+  <si>
+    <t>Iter 5</t>
+  </si>
+  <si>
+    <t>Login Logout &amp; Acct Mgmt</t>
+  </si>
+  <si>
+    <t>Current Iteration: 6</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
   </si>
 </sst>
 </file>
@@ -753,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -793,6 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,13 +839,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1000495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -860,13 +883,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2077171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -904,13 +927,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1000495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -948,13 +971,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2077171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1520,6 +1543,623 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
@@ -3356,572 +3996,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>